--- a/Data/EC/NIT-9003120240.xlsx
+++ b/Data/EC/NIT-9003120240.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CE6E71-8EE2-4CE4-B55F-A9AB6E803536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C1CC0D-B1EE-4DBD-A32A-C6D4CC76B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E16A951E-0406-4461-A5FB-74FDC9287935}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E2EE68D-F211-42B0-98F8-24F661E35035}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,172 +71,172 @@
     <t>JHON JAVIER MEZA QUIROZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -348,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B90FCA8-6645-75EE-8B60-2C37FDE6DDFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B705D9-E6EB-3B80-DA63-B64E4D713736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658CBE25-CDE9-402B-8D20-217F9EC4139C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27514909-EA31-4981-81D8-54D16B2E47F7}">
   <dimension ref="B2:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>22916</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1317,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1340,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1363,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1386,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1409,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1432,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1455,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1478,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1501,7 +1501,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1524,7 +1524,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1547,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1570,7 +1570,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1593,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1616,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1639,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1662,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1685,7 +1685,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1708,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1731,7 +1731,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1869,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1892,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1915,7 +1915,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1938,7 +1938,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1961,7 +1961,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1984,7 +1984,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2007,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2030,7 +2030,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2053,7 +2053,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2076,7 +2076,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2122,7 +2122,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2145,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2168,7 +2168,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2191,7 +2191,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2214,7 +2214,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2237,7 +2237,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2260,7 +2260,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2283,7 +2283,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2306,7 +2306,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2329,7 +2329,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2352,7 +2352,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2375,7 +2375,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2398,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2421,7 +2421,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2444,7 +2444,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="24">
-        <v>25774</v>
+        <v>22916</v>
       </c>
       <c r="G71" s="24">
         <v>781242</v>
